--- a/observatory/config/template-report-mail.xlsx
+++ b/observatory/config/template-report-mail.xlsx
@@ -977,7 +977,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1027,48 +1027,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAEEF3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAEEF3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1245,13 +1203,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Z235"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -1321,35 +1279,35 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D2" s="9" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H2" s="11" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J2" s="12" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K2" s="6"/>
@@ -1377,35 +1335,35 @@
         <v>13</v>
       </c>
       <c r="C3" s="8" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="9" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H3" s="11" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J3" s="12" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K3" s="6"/>
@@ -1433,35 +1391,35 @@
         <v>15</v>
       </c>
       <c r="C4" s="8" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="9" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H4" s="11" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J4" s="12" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K4" s="6"/>
@@ -1489,35 +1447,35 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="9" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H5" s="11" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J5" s="12" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K5" s="6"/>
@@ -1545,35 +1503,35 @@
         <v>19</v>
       </c>
       <c r="C6" s="8" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="9" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H6" s="11" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J6" s="12" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K6" s="6"/>
@@ -1601,35 +1559,35 @@
         <v>21</v>
       </c>
       <c r="C7" s="8" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="9" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H7" s="11" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J7" s="12" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K7" s="6"/>
@@ -1657,35 +1615,35 @@
         <v>23</v>
       </c>
       <c r="C8" s="8" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="9" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H8" s="11" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J8" s="12" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K8" s="6"/>
@@ -1713,35 +1671,35 @@
         <v>25</v>
       </c>
       <c r="C9" s="8" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="9" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H9" s="11" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J9" s="12" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K9" s="6"/>
@@ -1769,35 +1727,35 @@
         <v>27</v>
       </c>
       <c r="C10" s="8" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="9" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H10" s="11" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J10" s="12" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K10" s="6"/>
@@ -1825,35 +1783,35 @@
         <v>29</v>
       </c>
       <c r="C11" s="8" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D11" s="9" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E11" s="10" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F11" s="10" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G11" s="10" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H11" s="11" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I11" s="10" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J11" s="12" t="e">
-        <f aca="true">INDIRECT(B11&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B11&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K11" s="6"/>
@@ -1881,35 +1839,35 @@
         <v>31</v>
       </c>
       <c r="C12" s="8" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D12" s="9" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E12" s="10" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F12" s="10" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G12" s="10" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H12" s="11" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I12" s="10" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="12" t="e">
-        <f aca="true">INDIRECT(B12&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B12&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K12" s="6"/>
@@ -1937,35 +1895,35 @@
         <v>33</v>
       </c>
       <c r="C13" s="8" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D13" s="9" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E13" s="10" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F13" s="10" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G13" s="10" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H13" s="11" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I13" s="10" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J13" s="12" t="e">
-        <f aca="true">INDIRECT(B13&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B13&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K13" s="6"/>
@@ -1993,35 +1951,35 @@
         <v>35</v>
       </c>
       <c r="C14" s="8" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D14" s="9" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E14" s="10" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F14" s="10" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G14" s="10" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H14" s="11" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I14" s="10" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="12" t="e">
-        <f aca="true">INDIRECT(B14&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B14&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K14" s="6"/>
@@ -2049,35 +2007,35 @@
         <v>37</v>
       </c>
       <c r="C15" s="8" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D15" s="9" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E15" s="10" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F15" s="10" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G15" s="10" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H15" s="11" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I15" s="10" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J15" s="12" t="e">
-        <f aca="true">INDIRECT(B15&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B15&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K15" s="6"/>
@@ -2105,35 +2063,35 @@
         <v>39</v>
       </c>
       <c r="C16" s="8" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D16" s="9" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E16" s="10" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F16" s="10" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G16" s="10" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H16" s="11" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I16" s="10" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J16" s="12" t="e">
-        <f aca="true">INDIRECT(B16&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B16&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K16" s="6"/>
@@ -2161,35 +2119,35 @@
         <v>41</v>
       </c>
       <c r="C17" s="8" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D17" s="9" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E17" s="10" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F17" s="10" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G17" s="10" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H17" s="11" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I17" s="10" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J17" s="12" t="e">
-        <f aca="true">INDIRECT(B17&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B17&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K17" s="6"/>
@@ -2217,35 +2175,35 @@
         <v>43</v>
       </c>
       <c r="C18" s="8" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D18" s="9" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E18" s="10" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F18" s="10" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G18" s="10" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H18" s="11" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I18" s="10" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J18" s="12" t="e">
-        <f aca="true">INDIRECT(B18&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B18&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K18" s="6"/>
@@ -2273,35 +2231,35 @@
         <v>45</v>
       </c>
       <c r="C19" s="8" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D19" s="9" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E19" s="10" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F19" s="10" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G19" s="10" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H19" s="11" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I19" s="10" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J19" s="12" t="e">
-        <f aca="true">INDIRECT(B19&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B19&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K19" s="6"/>
@@ -2329,35 +2287,35 @@
         <v>47</v>
       </c>
       <c r="C20" s="8" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D20" s="9" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E20" s="10" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F20" s="10" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G20" s="10" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H20" s="11" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I20" s="10" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J20" s="12" t="e">
-        <f aca="true">INDIRECT(B20&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B20&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K20" s="6"/>
@@ -2385,35 +2343,35 @@
         <v>49</v>
       </c>
       <c r="C21" s="8" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D21" s="9" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E21" s="10" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F21" s="10" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G21" s="10" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H21" s="11" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I21" s="10" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J21" s="12" t="e">
-        <f aca="true">INDIRECT(B21&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B21&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K21" s="6"/>
@@ -2441,35 +2399,35 @@
         <v>51</v>
       </c>
       <c r="C22" s="8" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D22" s="9" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E22" s="10" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F22" s="10" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G22" s="10" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H22" s="11" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I22" s="10" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J22" s="12" t="e">
-        <f aca="true">INDIRECT(B22&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B22&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K22" s="6"/>
@@ -2497,35 +2455,35 @@
         <v>53</v>
       </c>
       <c r="C23" s="8" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D23" s="9" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E23" s="10" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F23" s="10" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G23" s="10" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H23" s="11" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I23" s="10" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J23" s="12" t="e">
-        <f aca="true">INDIRECT(B23&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B23&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K23" s="6"/>
@@ -2553,35 +2511,35 @@
         <v>55</v>
       </c>
       <c r="C24" s="8" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D24" s="9" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E24" s="10" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F24" s="10" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G24" s="10" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H24" s="11" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I24" s="10" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J24" s="12" t="e">
-        <f aca="true">INDIRECT(B24&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B24&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K24" s="6"/>
@@ -2609,35 +2567,35 @@
         <v>57</v>
       </c>
       <c r="C25" s="8" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D25" s="9" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E25" s="10" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F25" s="10" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G25" s="10" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H25" s="11" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I25" s="10" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J25" s="12" t="e">
-        <f aca="true">INDIRECT(B25&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B25&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K25" s="6"/>
@@ -2665,35 +2623,35 @@
         <v>59</v>
       </c>
       <c r="C26" s="8" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D26" s="9" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E26" s="10" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F26" s="10" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G26" s="10" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H26" s="11" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I26" s="10" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J26" s="12" t="e">
-        <f aca="true">INDIRECT(B26&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B26&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K26" s="6"/>
@@ -2721,35 +2679,35 @@
         <v>61</v>
       </c>
       <c r="C27" s="8" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D27" s="9" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E27" s="10" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F27" s="10" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G27" s="10" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H27" s="11" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="10" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J27" s="12" t="e">
-        <f aca="true">INDIRECT(B27&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B27&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K27" s="6"/>
@@ -2777,35 +2735,35 @@
         <v>63</v>
       </c>
       <c r="C28" s="8" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D28" s="9" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E28" s="10" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F28" s="10" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G28" s="10" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H28" s="11" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I28" s="10" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J28" s="12" t="e">
-        <f aca="true">INDIRECT(B28&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B28&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K28" s="6"/>
@@ -2833,35 +2791,35 @@
         <v>65</v>
       </c>
       <c r="C29" s="8" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D29" s="9" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E29" s="10" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F29" s="10" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G29" s="10" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H29" s="11" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I29" s="10" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J29" s="12" t="e">
-        <f aca="true">INDIRECT(B29&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B29&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K29" s="6"/>
@@ -2889,35 +2847,35 @@
         <v>67</v>
       </c>
       <c r="C30" s="8" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D30" s="9" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E30" s="10" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F30" s="10" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G30" s="10" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H30" s="11" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I30" s="10" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J30" s="12" t="e">
-        <f aca="true">INDIRECT(B30&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B30&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K30" s="6"/>
@@ -2945,35 +2903,35 @@
         <v>69</v>
       </c>
       <c r="C31" s="8" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D31" s="9" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E31" s="10" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F31" s="10" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G31" s="10" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H31" s="11" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I31" s="10" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J31" s="12" t="e">
-        <f aca="true">INDIRECT(B31&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B31&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K31" s="6"/>
@@ -3001,35 +2959,35 @@
         <v>71</v>
       </c>
       <c r="C32" s="8" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D32" s="9" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E32" s="10" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F32" s="10" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G32" s="10" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H32" s="11" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I32" s="10" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J32" s="12" t="e">
-        <f aca="true">INDIRECT(B32&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B32&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K32" s="6"/>
@@ -3057,35 +3015,35 @@
         <v>73</v>
       </c>
       <c r="C33" s="8" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D33" s="9" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E33" s="10" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F33" s="10" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G33" s="10" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H33" s="11" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I33" s="10" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J33" s="12" t="e">
-        <f aca="true">INDIRECT(B33&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B33&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K33" s="6"/>
@@ -9555,19 +9513,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="7" style="0" width="10.67"/>
   </cols>
@@ -16435,22 +16393,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14"/>
@@ -16517,35 +16475,35 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D2" s="9" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H2" s="11" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I2" s="10" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J2" s="12" t="e">
-        <f aca="true">INDIRECT(B2&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B2&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K2" s="8"/>
@@ -16574,35 +16532,35 @@
         <v>15</v>
       </c>
       <c r="C3" s="8" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="9" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H3" s="11" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I3" s="10" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J3" s="12" t="e">
-        <f aca="true">INDIRECT(B3&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B3&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K3" s="6"/>
@@ -16631,35 +16589,35 @@
         <v>17</v>
       </c>
       <c r="C4" s="8" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="9" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H4" s="11" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I4" s="10" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J4" s="12" t="e">
-        <f aca="true">INDIRECT(B4&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B4&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K4" s="6"/>
@@ -16688,35 +16646,35 @@
         <v>19</v>
       </c>
       <c r="C5" s="8" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="9" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H5" s="11" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I5" s="10" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J5" s="12" t="e">
-        <f aca="true">INDIRECT(B5&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B5&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K5" s="6"/>
@@ -16745,35 +16703,35 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="9" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H6" s="11" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I6" s="10" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J6" s="12" t="e">
-        <f aca="true">INDIRECT(B6&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B6&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K6" s="6"/>
@@ -16802,35 +16760,35 @@
         <v>23</v>
       </c>
       <c r="C7" s="8" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="9" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H7" s="11" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I7" s="10" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J7" s="12" t="e">
-        <f aca="true">INDIRECT(B7&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B7&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K7" s="6"/>
@@ -16859,35 +16817,35 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="9" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H8" s="11" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="10" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J8" s="12" t="e">
-        <f aca="true">INDIRECT(B8&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B8&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K8" s="6"/>
@@ -16916,35 +16874,35 @@
         <v>29</v>
       </c>
       <c r="C9" s="8" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="9" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H9" s="11" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I9" s="10" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J9" s="12" t="e">
-        <f aca="true">INDIRECT(B9&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B9&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K9" s="6"/>
@@ -16973,35 +16931,35 @@
         <v>33</v>
       </c>
       <c r="C10" s="8" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$f$5")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$f$5")</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="9" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$c$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$c$13")</f>
         <v>#REF!</v>
       </c>
       <c r="E10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$j$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$j$13")</f>
         <v>#REF!</v>
       </c>
       <c r="F10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$p$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$p$13")</f>
         <v>#REF!</v>
       </c>
       <c r="G10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$z$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$z$13")</f>
         <v>#REF!</v>
       </c>
       <c r="H10" s="11" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$AA$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$AA$13")</f>
         <v>#REF!</v>
       </c>
       <c r="I10" s="10" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$ar$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$ar$13")</f>
         <v>#REF!</v>
       </c>
       <c r="J10" s="12" t="e">
-        <f aca="true">INDIRECT(B10&amp;"!$R$13")</f>
+        <f aca="true">INDIRECT(CHAR(39)&amp;B10&amp;CHAR(39)&amp;"!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="K10" s="6"/>
@@ -23924,63 +23882,43 @@
   <mergeCells count="1">
     <mergeCell ref="A13:J13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D10">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D10">
     <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>49</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:G2 I2:J2">
+  <conditionalFormatting sqref="E2:G10 I2:J10">
     <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:G2 I2:J2">
+  <conditionalFormatting sqref="E2:G10 I2:J10">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
+  <conditionalFormatting sqref="D12:J12">
     <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>30</formula>
+      <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
-    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>49</formula>
+  <conditionalFormatting sqref="H2:H10">
+    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:G10 I3:J10">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" priority="8" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:G10 I3:J10">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" priority="9" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10">
-    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>0.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10">
-    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10">
-    <cfRule type="cellIs" priority="13" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23999,13 +23937,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z221"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17"/>
@@ -31109,7 +31047,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>
